--- a/demodata.xlsx
+++ b/demodata.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Testcases</t>
   </si>

--- a/demodata.xlsx
+++ b/demodata.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>Testcases</t>
   </si>

--- a/demodata.xlsx
+++ b/demodata.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Testcases</t>
   </si>

--- a/demodata.xlsx
+++ b/demodata.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>Testcases</t>
   </si>
